--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168121.5722513786</v>
+        <v>165558.5519154741</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.58753137644032</v>
       </c>
       <c r="C2" t="n">
-        <v>311.2190355664264</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>9.307952559879908</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>86.53722336206309</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>110.4637346787656</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>223.6305672662267</v>
+        <v>205.1165526564925</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>101.3352820580394</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>143.8843955160132</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,13 +1111,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>214.0259953870924</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>201.9177948378803</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.7776174440232</v>
+        <v>75.70737290528214</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>132.6315337216692</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>137.9792024346629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189243</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.974488840439189</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.982549874622</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>868.6198876863129</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>510.3541890795624</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>124.5659364813182</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2552.937356117448</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2299.356295381628</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2299.356295381628</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1946.587640111514</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.121881850434</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1182.982549874622</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4395,10 +4395,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1338.392942985346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1338.392942985346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1338.392942985346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1338.392942985346</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.98160625599</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2076.592243063854</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>2076.592243063854</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1787.175073026894</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X4" t="n">
-        <v>1559.185522128876</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>1338.392942985346</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1454.537269016651</v>
+        <v>681.0854746196778</v>
       </c>
       <c r="C5" t="n">
-        <v>1085.57475207624</v>
+        <v>681.0854746196778</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
         <v>473.8970375929177</v>
@@ -4565,16 +4565,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056585</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.137109080773</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4644,25 +4644,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014359</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360656</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>597.1475965504967</v>
+        <v>491.3876008968048</v>
       </c>
       <c r="C7" t="n">
-        <v>494.7887257848004</v>
+        <v>491.3876008968048</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>491.3876008968048</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>343.4745073144117</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>196.5845598165013</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>196.5845598165013</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>825.137147448514</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>825.137147448514</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X7" t="n">
-        <v>597.1475965504967</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="Y7" t="n">
-        <v>597.1475965504967</v>
+        <v>673.0360657270445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.635933406614</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.635933406614</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1130.582467248343</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>744.7942146500984</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>333.8083098604909</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1980.101691667693</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1606.635933406614</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1606.635933406614</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>870.329241545892</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.8280128167645</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888576</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W10" t="n">
-        <v>1430.610142858312</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.620591960295</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y10" t="n">
-        <v>981.8280128167645</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5018,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>369.499740389278</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687895</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5537,16 +5537,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718102</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085241</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879354</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842394</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443762</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008461</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2441.938347377797</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2259.083513032701</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.482048055643</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745236</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>240.446544241744</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>280.1079373569283</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30.36925650589473</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.94575946518773</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>197.3502324203538</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>32.89260457059964</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>79.42624789262538</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>61.40075786968247</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001133.216295686</v>
+        <v>1001133.216295687</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406861</v>
+        <v>317255.876140686</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923203</v>
@@ -26320,40 +26320,40 @@
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="F2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.84311895966</v>
+        <v>89354.84311895972</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,37 +26427,37 @@
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670735</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707331</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670735</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-979788.522994038</v>
+        <v>-979974.916382577</v>
       </c>
       <c r="C6" t="n">
         <v>124095.2529208506</v>
@@ -26528,40 +26528,40 @@
         <v>124095.2529208507</v>
       </c>
       <c r="E6" t="n">
-        <v>-272468.0910769078</v>
+        <v>-272502.8290023432</v>
       </c>
       <c r="F6" t="n">
-        <v>235017.3505476382</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="G6" t="n">
-        <v>235017.3505476382</v>
+        <v>234982.6126222024</v>
       </c>
       <c r="H6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222025</v>
       </c>
       <c r="I6" t="n">
-        <v>235017.3505476382</v>
+        <v>234982.6126222028</v>
       </c>
       <c r="J6" t="n">
-        <v>67412.17273765575</v>
+        <v>67377.4348122201</v>
       </c>
       <c r="K6" t="n">
-        <v>235017.3505476384</v>
+        <v>234982.6126222026</v>
       </c>
       <c r="L6" t="n">
-        <v>235017.3505476383</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="M6" t="n">
-        <v>102410.0568187115</v>
+        <v>102375.318893276</v>
       </c>
       <c r="N6" t="n">
-        <v>235017.3505476387</v>
+        <v>234982.6126222024</v>
       </c>
       <c r="O6" t="n">
-        <v>235017.3505476382</v>
+        <v>234982.6126222025</v>
       </c>
       <c r="P6" t="n">
-        <v>235017.3505476384</v>
+        <v>234982.6126222027</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>234.2005508218525</v>
       </c>
       <c r="C2" t="n">
-        <v>54.05385620458117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>58.88382466086816</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>131.0524743544563</v>
+        <v>149.5664889641905</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65.91153904058847</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.367113639115672</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>197.5217073858616</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>147.3231738795327</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>82.74538089256782</v>
+        <v>210.8156254313089</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>208.6096528357816</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1269048795942</v>
+        <v>491.0077074256856</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>497.4319917882572</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>630.2591755145964</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>577.7882979947785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483007</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
